--- a/classfiers/bottleneck/elm/bottleneck_elm_rbf_linf_results.xlsx
+++ b/classfiers/bottleneck/elm/bottleneck_elm_rbf_linf_results.xlsx
@@ -465,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9141630901287554</v>
+        <v>0.9530516431924883</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4813380281690141</v>
+        <v>0.458128078817734</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9141630901287554</v>
+        <v>0.971830985915493</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4807511737089202</v>
+        <v>0.5438808373590983</v>
       </c>
     </row>
     <row r="4">
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9184549356223176</v>
+        <v>0.9530516431924883</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5419331037875061</v>
+        <v>0.5172413793103449</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9094827586206896</v>
+        <v>0.9575471698113207</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5147822162040173</v>
+        <v>0.555008210180624</v>
       </c>
     </row>
     <row r="6">
@@ -533,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9482758620689655</v>
+        <v>0.9433962264150944</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4988636363636363</v>
+        <v>0.4991666666666666</v>
       </c>
     </row>
     <row r="7">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9209079473138967</v>
+        <v>0.955775533705377</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5035336316466188</v>
+        <v>0.5146850344668935</v>
       </c>
     </row>
   </sheetData>
